--- a/Code/Results/Cases/Case_1_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_85/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4126626252426604</v>
+        <v>0.1501210662251395</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08607666285175952</v>
+        <v>0.1126446972390482</v>
       </c>
       <c r="E2">
-        <v>0.03917050024705482</v>
+        <v>0.1018713099136805</v>
       </c>
       <c r="F2">
-        <v>2.769011297409975</v>
+        <v>2.248238333847695</v>
       </c>
       <c r="G2">
-        <v>3.009736738713258</v>
+        <v>1.78555634907849</v>
       </c>
       <c r="H2">
-        <v>1.529761212949012</v>
+        <v>1.407421193105591</v>
       </c>
       <c r="I2">
-        <v>0.2420438757798671</v>
+        <v>0.3677023488543227</v>
       </c>
       <c r="J2">
-        <v>0.03265788973729356</v>
+        <v>0.1222587805042976</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.789089802235964</v>
+        <v>1.161364312408281</v>
       </c>
       <c r="N2">
-        <v>1.501519340072832</v>
+        <v>1.272537520700908</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3594977675326589</v>
+        <v>0.1328573945499727</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0794087380884676</v>
+        <v>0.1107063440254166</v>
       </c>
       <c r="E3">
-        <v>0.03967945455570376</v>
+        <v>0.1024010309297543</v>
       </c>
       <c r="F3">
-        <v>2.42803223301101</v>
+        <v>2.18889579139703</v>
       </c>
       <c r="G3">
-        <v>2.607552949155576</v>
+        <v>1.705431637341889</v>
       </c>
       <c r="H3">
-        <v>1.349131453982523</v>
+        <v>1.377824413701546</v>
       </c>
       <c r="I3">
-        <v>0.2427976520753994</v>
+        <v>0.3702802091863759</v>
       </c>
       <c r="J3">
-        <v>0.03543540664340306</v>
+        <v>0.1240897070170042</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.413895024034645</v>
+        <v>1.060108484325582</v>
       </c>
       <c r="N3">
-        <v>1.415676310660032</v>
+        <v>1.246942354410095</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3268087360927581</v>
+        <v>0.1222367125998716</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07539198674771086</v>
+        <v>0.1095003069324463</v>
       </c>
       <c r="E4">
-        <v>0.04002034726767079</v>
+        <v>0.1027481580864711</v>
       </c>
       <c r="F4">
-        <v>2.226433957327785</v>
+        <v>2.154159351268191</v>
       </c>
       <c r="G4">
-        <v>2.368868213818899</v>
+        <v>1.657667757678269</v>
       </c>
       <c r="H4">
-        <v>1.242460502015717</v>
+        <v>1.360655113210555</v>
       </c>
       <c r="I4">
-        <v>0.2436911100453933</v>
+        <v>0.3720956992556239</v>
       </c>
       <c r="J4">
-        <v>0.03724420611464452</v>
+        <v>0.125274969442287</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.186222968775951</v>
+        <v>0.998175154693655</v>
       </c>
       <c r="N4">
-        <v>1.363931377656328</v>
+        <v>1.231690063440311</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3134742970633368</v>
+        <v>0.1179038817202809</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07377035620148575</v>
+        <v>0.1090047828021241</v>
       </c>
       <c r="E5">
-        <v>0.04016626587676786</v>
+        <v>0.1028951303132635</v>
       </c>
       <c r="F5">
-        <v>2.145985705696731</v>
+        <v>2.140427769259631</v>
       </c>
       <c r="G5">
-        <v>2.273397835931434</v>
+        <v>1.638559515227286</v>
       </c>
       <c r="H5">
-        <v>1.199923879979792</v>
+        <v>1.35390887926863</v>
       </c>
       <c r="I5">
-        <v>0.2441607622914788</v>
+        <v>0.3728941615706809</v>
       </c>
       <c r="J5">
-        <v>0.03800626386722339</v>
+        <v>0.125773315842576</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.094003939433335</v>
+        <v>0.9729964866141643</v>
       </c>
       <c r="N5">
-        <v>1.343077864387993</v>
+        <v>1.225592221924984</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.311259261968047</v>
+        <v>0.1171841391310693</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07350189194865919</v>
+        <v>0.108922254766</v>
       </c>
       <c r="E6">
-        <v>0.04019091487120985</v>
+        <v>0.1029198684515684</v>
       </c>
       <c r="F6">
-        <v>2.13272355347911</v>
+        <v>2.138173139538338</v>
       </c>
       <c r="G6">
-        <v>2.257645862959919</v>
+        <v>1.635407975189565</v>
       </c>
       <c r="H6">
-        <v>1.192913429829446</v>
+        <v>1.352803741187444</v>
       </c>
       <c r="I6">
-        <v>0.244245046382737</v>
+        <v>0.3730302908502701</v>
       </c>
       <c r="J6">
-        <v>0.03813428143935726</v>
+        <v>0.1258569921394213</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.078721575691674</v>
+        <v>0.968819186059207</v>
       </c>
       <c r="N6">
-        <v>1.339628970621618</v>
+        <v>1.224586814915284</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3266289598271754</v>
+        <v>0.1221782975083414</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07537006041069816</v>
+        <v>0.1094936406163072</v>
       </c>
       <c r="E7">
-        <v>0.04002228699071875</v>
+        <v>0.1027501178560319</v>
       </c>
       <c r="F7">
-        <v>2.225342409914276</v>
+        <v>2.153972451256578</v>
       </c>
       <c r="G7">
-        <v>2.367573745785307</v>
+        <v>1.657408621894632</v>
       </c>
       <c r="H7">
-        <v>1.241883226813059</v>
+        <v>1.36056311975247</v>
       </c>
       <c r="I7">
-        <v>0.2436970200215534</v>
+        <v>0.3721062300123315</v>
       </c>
       <c r="J7">
-        <v>0.03725438375680312</v>
+        <v>0.1252816282121163</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.184977154677227</v>
+        <v>0.9978353450475339</v>
       </c>
       <c r="N7">
-        <v>1.363649208210802</v>
+        <v>1.231607348217807</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3943396098289327</v>
+        <v>0.1441730819382201</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08375877471621607</v>
+        <v>0.1119796116678771</v>
       </c>
       <c r="E8">
-        <v>0.03934000419146244</v>
+        <v>0.1020494258015248</v>
       </c>
       <c r="F8">
-        <v>2.64967230888206</v>
+        <v>2.227421893040315</v>
       </c>
       <c r="G8">
-        <v>2.869170697146728</v>
+        <v>1.757629222206162</v>
       </c>
       <c r="H8">
-        <v>1.466516186161442</v>
+        <v>1.39700684922073</v>
       </c>
       <c r="I8">
-        <v>0.2422127114390058</v>
+        <v>0.3685429793032782</v>
       </c>
       <c r="J8">
-        <v>0.03359346503079852</v>
+        <v>0.1228774018724172</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.659085934373849</v>
+        <v>1.126401698234716</v>
       </c>
       <c r="N8">
-        <v>1.471714985948822</v>
+        <v>1.263616808388917</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5268617763690315</v>
+        <v>0.1871252552393798</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1010487632663128</v>
+        <v>0.1167315434953622</v>
       </c>
       <c r="E9">
-        <v>0.03823510772000471</v>
+        <v>0.1008483129274751</v>
       </c>
       <c r="F9">
-        <v>3.556232725651</v>
+        <v>2.385125210961036</v>
       </c>
       <c r="G9">
-        <v>3.932905548662461</v>
+        <v>1.965745002969243</v>
       </c>
       <c r="H9">
-        <v>1.947521828503227</v>
+        <v>1.476524462205106</v>
       </c>
       <c r="I9">
-        <v>0.2428499303425475</v>
+        <v>0.3633963190381309</v>
       </c>
       <c r="J9">
-        <v>0.0272864115750604</v>
+        <v>0.1186477812942781</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.616499617942168</v>
+        <v>1.380434579560031</v>
       </c>
       <c r="N9">
-        <v>1.69173959771706</v>
+        <v>1.330019181355681</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6242382360539409</v>
+        <v>0.2185555217858166</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1146472323939349</v>
+        <v>0.1201521596573798</v>
       </c>
       <c r="E10">
-        <v>0.03757964144875547</v>
+        <v>0.1000704052896273</v>
       </c>
       <c r="F10">
-        <v>4.288750423599765</v>
+        <v>2.509589137915384</v>
       </c>
       <c r="G10">
-        <v>4.787234092006429</v>
+        <v>2.126024558045742</v>
       </c>
       <c r="H10">
-        <v>2.336926968392675</v>
+        <v>1.539990511436997</v>
       </c>
       <c r="I10">
-        <v>0.2456760536608549</v>
+        <v>0.360730654270693</v>
       </c>
       <c r="J10">
-        <v>0.02326468755415378</v>
+        <v>0.1158366158845627</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.347198033448265</v>
+        <v>1.568296160863312</v>
       </c>
       <c r="N10">
-        <v>1.85906418104048</v>
+        <v>1.380967397138619</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6685833674411867</v>
+        <v>0.2328230152464812</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.121139449634228</v>
+        <v>0.121693927953217</v>
       </c>
       <c r="E11">
-        <v>0.03731995204614336</v>
+        <v>0.0997390293385001</v>
       </c>
       <c r="F11">
-        <v>4.642276491082725</v>
+        <v>2.568137813040096</v>
       </c>
       <c r="G11">
-        <v>5.198365226406111</v>
+        <v>2.200612069537499</v>
       </c>
       <c r="H11">
-        <v>2.525045590140962</v>
+        <v>1.569988729891008</v>
       </c>
       <c r="I11">
-        <v>0.2475206424158571</v>
+        <v>0.3597588688091271</v>
       </c>
       <c r="J11">
-        <v>0.0215890322515504</v>
+        <v>0.1146222294512484</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.688451106635966</v>
+        <v>1.654039073827533</v>
       </c>
       <c r="N11">
-        <v>1.936598049650968</v>
+        <v>1.404604303995228</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6853865049365595</v>
+        <v>0.238221035338114</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1236539044056073</v>
+        <v>0.1222757760511826</v>
       </c>
       <c r="E12">
-        <v>0.03722768104802032</v>
+        <v>0.09961676646145357</v>
       </c>
       <c r="F12">
-        <v>4.779672372994241</v>
+        <v>2.590590774142669</v>
       </c>
       <c r="G12">
-        <v>5.357975396685163</v>
+        <v>2.229102846580872</v>
       </c>
       <c r="H12">
-        <v>2.598186046835849</v>
+        <v>1.581512746911983</v>
       </c>
       <c r="I12">
-        <v>0.248303766210082</v>
+        <v>0.3594253987045732</v>
       </c>
       <c r="J12">
-        <v>0.02097870992738216</v>
+        <v>0.1141716531845343</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.819250563440463</v>
+        <v>1.686549260072368</v>
       </c>
       <c r="N12">
-        <v>1.966178368451921</v>
+        <v>1.413620209160712</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6817671136924446</v>
+        <v>0.2370586938417034</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1231096606182263</v>
+        <v>0.1221505518827257</v>
       </c>
       <c r="E13">
-        <v>0.03724727315127119</v>
+        <v>0.09964295487012542</v>
       </c>
       <c r="F13">
-        <v>4.749914093986689</v>
+        <v>2.585742520921883</v>
       </c>
       <c r="G13">
-        <v>5.323413509310171</v>
+        <v>2.222955819113452</v>
       </c>
       <c r="H13">
-        <v>2.582343366853877</v>
+        <v>1.579023498066647</v>
       </c>
       <c r="I13">
-        <v>0.2481312718967352</v>
+        <v>0.3594956836996559</v>
       </c>
       <c r="J13">
-        <v>0.02110904021150972</v>
+        <v>0.1142682795293992</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.791005082063421</v>
+        <v>1.679545770187829</v>
       </c>
       <c r="N13">
-        <v>1.959797661737298</v>
+        <v>1.411675593244098</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6699655365389958</v>
+        <v>0.233267211568716</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.12134511469241</v>
+        <v>0.1217418363548148</v>
       </c>
       <c r="E14">
-        <v>0.03731223561835773</v>
+        <v>0.09972890619978525</v>
       </c>
       <c r="F14">
-        <v>4.653505632404858</v>
+        <v>2.569979357480634</v>
       </c>
       <c r="G14">
-        <v>5.211413371691947</v>
+        <v>2.202951060670387</v>
       </c>
       <c r="H14">
-        <v>2.531022641633001</v>
+        <v>1.570933510959435</v>
       </c>
       <c r="I14">
-        <v>0.2475833491060939</v>
+        <v>0.3597307427249099</v>
       </c>
       <c r="J14">
-        <v>0.021538322316355</v>
+        <v>0.1145849740527127</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.699178560770704</v>
+        <v>1.656712878101061</v>
       </c>
       <c r="N14">
-        <v>1.939027134364096</v>
+        <v>1.405344748882158</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6627382270866065</v>
+        <v>0.2309441857572665</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1202719734299222</v>
+        <v>0.1214912296950743</v>
       </c>
       <c r="E15">
-        <v>0.03735283575414172</v>
+        <v>0.09978197307973868</v>
       </c>
       <c r="F15">
-        <v>4.594931460040527</v>
+        <v>2.560360801822497</v>
       </c>
       <c r="G15">
-        <v>5.1433438376514</v>
+        <v>2.190729773587464</v>
       </c>
       <c r="H15">
-        <v>2.499845945517734</v>
+        <v>1.565999630220858</v>
       </c>
       <c r="I15">
-        <v>0.2472588819855375</v>
+        <v>0.3598792160218736</v>
       </c>
       <c r="J15">
-        <v>0.02180449052918654</v>
+        <v>0.1147801684725727</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.643147164822196</v>
+        <v>1.64273245146039</v>
       </c>
       <c r="N15">
-        <v>1.926333734278842</v>
+        <v>1.401475373158718</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6213414498820953</v>
+        <v>0.2176224625222574</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1142300743091411</v>
+        <v>0.1200511197947165</v>
       </c>
       <c r="E16">
-        <v>0.03759742933803256</v>
+        <v>0.1000925130784021</v>
       </c>
       <c r="F16">
-        <v>4.266104170975154</v>
+        <v>2.505802043275651</v>
       </c>
       <c r="G16">
-        <v>4.760874225828445</v>
+        <v>2.121184244197593</v>
       </c>
       <c r="H16">
-        <v>2.324880257012524</v>
+        <v>1.538052930913068</v>
       </c>
       <c r="I16">
-        <v>0.2455671080555888</v>
+        <v>0.3607989997186074</v>
       </c>
       <c r="J16">
-        <v>0.02337746292521903</v>
+        <v>0.115917277113387</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.325098912214074</v>
+        <v>1.562698402923402</v>
       </c>
       <c r="N16">
-        <v>1.854027020153978</v>
+        <v>1.379431840419613</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5959606681330172</v>
+        <v>0.2094419627808577</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.110609688926381</v>
+        <v>0.1191640479797158</v>
       </c>
       <c r="E17">
-        <v>0.03775767000943731</v>
+        <v>0.1002887722200025</v>
       </c>
       <c r="F17">
-        <v>4.069973118891141</v>
+        <v>2.472829285095827</v>
       </c>
       <c r="G17">
-        <v>4.532452288016913</v>
+        <v>2.078953104817799</v>
       </c>
       <c r="H17">
-        <v>2.220568274805657</v>
+        <v>1.52119882622975</v>
       </c>
       <c r="I17">
-        <v>0.2446753367337493</v>
+        <v>0.361424864066791</v>
       </c>
       <c r="J17">
-        <v>0.02438322602185528</v>
+        <v>0.1166313725040389</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.132450618516543</v>
+        <v>1.513673051822863</v>
       </c>
       <c r="N17">
-        <v>1.81004313848959</v>
+        <v>1.366025976551896</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5813665949891629</v>
+        <v>0.2047339290096488</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1085553065890323</v>
+        <v>0.118652478791752</v>
       </c>
       <c r="E18">
-        <v>0.03785341904402451</v>
+        <v>0.1004037737064287</v>
       </c>
       <c r="F18">
-        <v>3.959032234178153</v>
+        <v>2.454045563569451</v>
       </c>
       <c r="G18">
-        <v>4.403138925502276</v>
+        <v>2.054820265399428</v>
       </c>
       <c r="H18">
-        <v>2.161581132773392</v>
+        <v>1.511610750286565</v>
       </c>
       <c r="I18">
-        <v>0.2442147536590653</v>
+        <v>0.3618075199306752</v>
       </c>
       <c r="J18">
-        <v>0.02497605358680399</v>
+        <v>0.1170481641609229</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.022456736134814</v>
+        <v>1.485501646172935</v>
       </c>
       <c r="N18">
-        <v>1.784877097432712</v>
+        <v>1.358358667582195</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5764259228182027</v>
+        <v>0.2031393968429711</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1078642094039566</v>
+        <v>0.1184790365116868</v>
       </c>
       <c r="E19">
-        <v>0.03788643953378479</v>
+        <v>0.1004430754767416</v>
       </c>
       <c r="F19">
-        <v>3.921773908247104</v>
+        <v>2.447716730250903</v>
       </c>
       <c r="G19">
-        <v>4.3596920898257</v>
+        <v>2.046676177541116</v>
       </c>
       <c r="H19">
-        <v>2.141773705791053</v>
+        <v>1.508382523204688</v>
       </c>
       <c r="I19">
-        <v>0.2440676738977032</v>
+        <v>0.3619409784591312</v>
       </c>
       <c r="J19">
-        <v>0.02517917887288545</v>
+        <v>0.1171903233245029</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.985345983778259</v>
+        <v>1.475967862947613</v>
       </c>
       <c r="N19">
-        <v>1.776378568660249</v>
+        <v>1.355770133530655</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5986620273220069</v>
+        <v>0.210313086501543</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1109921124253788</v>
+        <v>0.1192586174077945</v>
       </c>
       <c r="E20">
-        <v>0.03774023792624348</v>
+        <v>0.1002676609467015</v>
       </c>
       <c r="F20">
-        <v>4.090654211928666</v>
+        <v>2.476320492208686</v>
       </c>
       <c r="G20">
-        <v>4.556549499624793</v>
+        <v>2.083432354809702</v>
       </c>
       <c r="H20">
-        <v>2.231565736469577</v>
+        <v>1.522981991888742</v>
       </c>
       <c r="I20">
-        <v>0.2447648206683795</v>
+        <v>0.361355893728895</v>
       </c>
       <c r="J20">
-        <v>0.02427466261697964</v>
+        <v>0.1165547281951922</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.152872293518953</v>
+        <v>1.518889120113997</v>
       </c>
       <c r="N20">
-        <v>1.814711490762306</v>
+        <v>1.367448570815384</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.673431626556237</v>
+        <v>0.2343809945632529</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1218617757648133</v>
+        <v>0.1218619393627307</v>
       </c>
       <c r="E21">
-        <v>0.03729298483695942</v>
+        <v>0.09970357287159715</v>
       </c>
       <c r="F21">
-        <v>4.681722101676712</v>
+        <v>2.574601695889498</v>
       </c>
       <c r="G21">
-        <v>5.244197856074152</v>
+        <v>2.208820222283634</v>
       </c>
       <c r="H21">
-        <v>2.546042187616592</v>
+        <v>1.573305257865286</v>
       </c>
       <c r="I21">
-        <v>0.2477419553135398</v>
+        <v>0.3596607640745937</v>
       </c>
       <c r="J21">
-        <v>0.02141155641141657</v>
+        <v>0.1144917010182624</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.726104803664768</v>
+        <v>1.663418330207094</v>
       </c>
       <c r="N21">
-        <v>1.945121836259062</v>
+        <v>1.407202512405036</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7223617107217137</v>
+        <v>0.2500827700675643</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1292998273399704</v>
+        <v>0.123551816956514</v>
       </c>
       <c r="E22">
-        <v>0.03703642162640186</v>
+        <v>0.09935368290501323</v>
       </c>
       <c r="F22">
-        <v>5.088928791313691</v>
+        <v>2.640479077548889</v>
       </c>
       <c r="G22">
-        <v>5.716913421127856</v>
+        <v>2.292205397511907</v>
       </c>
       <c r="H22">
-        <v>2.762870571339477</v>
+        <v>1.607153416213862</v>
       </c>
       <c r="I22">
-        <v>0.250183125686732</v>
+        <v>0.3587540820443849</v>
       </c>
       <c r="J22">
-        <v>0.01968269129005762</v>
+        <v>0.1131975266809349</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.110109171792402</v>
+        <v>1.758116925393381</v>
       </c>
       <c r="N22">
-        <v>2.031643123532149</v>
+        <v>1.433563103767341</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6962396239280224</v>
+        <v>0.2417051345308892</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1252947070729391</v>
+        <v>0.1226509308025285</v>
       </c>
       <c r="E23">
-        <v>0.03716986262163235</v>
+        <v>0.09953871227842281</v>
       </c>
       <c r="F23">
-        <v>4.869449029240172</v>
+        <v>2.605167090607978</v>
       </c>
       <c r="G23">
-        <v>5.4622187324386</v>
+        <v>2.247567946996469</v>
       </c>
       <c r="H23">
-        <v>2.645985691892292</v>
+        <v>1.588999512010218</v>
       </c>
       <c r="I23">
-        <v>0.2488334020678522</v>
+        <v>0.3592196223111763</v>
       </c>
       <c r="J23">
-        <v>0.02059161761734707</v>
+        <v>0.1138832916303516</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.904185643969683</v>
+        <v>1.70755236016322</v>
       </c>
       <c r="N23">
-        <v>1.985341227341223</v>
+        <v>1.419459622638641</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5974407503429404</v>
+        <v>0.2099192668711396</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1108191354480823</v>
+        <v>0.1192158674955763</v>
       </c>
       <c r="E24">
-        <v>0.0377481077194961</v>
+        <v>0.1002771985949282</v>
       </c>
       <c r="F24">
-        <v>4.081298672763097</v>
+        <v>2.474741579707228</v>
       </c>
       <c r="G24">
-        <v>4.54564894146074</v>
+        <v>2.081406830258402</v>
       </c>
       <c r="H24">
-        <v>2.226590745299518</v>
+        <v>1.522175506485723</v>
       </c>
       <c r="I24">
-        <v>0.2447242029926322</v>
+        <v>0.3613870040747962</v>
       </c>
       <c r="J24">
-        <v>0.02432369880728169</v>
+        <v>0.1165893596257832</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.143637302110619</v>
+        <v>1.516530892305937</v>
       </c>
       <c r="N24">
-        <v>1.812600553391547</v>
+        <v>1.36680529158545</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4910221742705971</v>
+        <v>0.1755265674511293</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09624619615193097</v>
+        <v>0.1154587440854016</v>
       </c>
       <c r="E25">
-        <v>0.03850780839318357</v>
+        <v>0.101154822198783</v>
       </c>
       <c r="F25">
-        <v>3.301038307962671</v>
+        <v>2.340971673794229</v>
       </c>
       <c r="G25">
-        <v>3.634317120617823</v>
+        <v>1.908171802944764</v>
       </c>
       <c r="H25">
-        <v>1.812001325268795</v>
+        <v>1.454136962339902</v>
       </c>
       <c r="I25">
-        <v>0.2422784067086852</v>
+        <v>0.3645922456310053</v>
       </c>
       <c r="J25">
-        <v>0.02889156092456346</v>
+        <v>0.1197400130042408</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.353557946085104</v>
+        <v>1.311501302633687</v>
       </c>
       <c r="N25">
-        <v>1.63127781256577</v>
+        <v>1.311672165330208</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_85/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1501210662251395</v>
+        <v>0.4126626252425893</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1126446972390482</v>
+        <v>0.08607666285176663</v>
       </c>
       <c r="E2">
-        <v>0.1018713099136805</v>
+        <v>0.03917050024708679</v>
       </c>
       <c r="F2">
-        <v>2.248238333847695</v>
+        <v>2.769011297410003</v>
       </c>
       <c r="G2">
-        <v>1.78555634907849</v>
+        <v>3.009736738713173</v>
       </c>
       <c r="H2">
-        <v>1.407421193105591</v>
+        <v>1.52976121294904</v>
       </c>
       <c r="I2">
-        <v>0.3677023488543227</v>
+        <v>0.2420438757798635</v>
       </c>
       <c r="J2">
-        <v>0.1222587805042976</v>
+        <v>0.03265788973729444</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.161364312408281</v>
+        <v>2.789089802235949</v>
       </c>
       <c r="N2">
-        <v>1.272537520700908</v>
+        <v>1.501519340072818</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1328573945499727</v>
+        <v>0.3594977675324174</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1107063440254166</v>
+        <v>0.07940873808835391</v>
       </c>
       <c r="E3">
-        <v>0.1024010309297543</v>
+        <v>0.03967945455570376</v>
       </c>
       <c r="F3">
-        <v>2.18889579139703</v>
+        <v>2.428032233010995</v>
       </c>
       <c r="G3">
-        <v>1.705431637341889</v>
+        <v>2.607552949155632</v>
       </c>
       <c r="H3">
-        <v>1.377824413701546</v>
+        <v>1.349131453982523</v>
       </c>
       <c r="I3">
-        <v>0.3702802091863759</v>
+        <v>0.2427976520754278</v>
       </c>
       <c r="J3">
-        <v>0.1240897070170042</v>
+        <v>0.03543540664340994</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.060108484325582</v>
+        <v>2.413895024034616</v>
       </c>
       <c r="N3">
-        <v>1.246942354410095</v>
+        <v>1.415676310660032</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1222367125998716</v>
+        <v>0.3268087360928291</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1095003069324463</v>
+        <v>0.07539198674749059</v>
       </c>
       <c r="E4">
-        <v>0.1027481580864711</v>
+        <v>0.04002034726767079</v>
       </c>
       <c r="F4">
-        <v>2.154159351268191</v>
+        <v>2.226433957327799</v>
       </c>
       <c r="G4">
-        <v>1.657667757678269</v>
+        <v>2.368868213818928</v>
       </c>
       <c r="H4">
-        <v>1.360655113210555</v>
+        <v>1.242460502015717</v>
       </c>
       <c r="I4">
-        <v>0.3720956992556239</v>
+        <v>0.2436911100453933</v>
       </c>
       <c r="J4">
-        <v>0.125274969442287</v>
+        <v>0.03724420611469093</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.998175154693655</v>
+        <v>2.186222968775965</v>
       </c>
       <c r="N4">
-        <v>1.231690063440311</v>
+        <v>1.363931377656314</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1179038817202809</v>
+        <v>0.3134742970634647</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1090047828021241</v>
+        <v>0.07377035620147154</v>
       </c>
       <c r="E5">
-        <v>0.1028951303132635</v>
+        <v>0.04016626587676519</v>
       </c>
       <c r="F5">
-        <v>2.140427769259631</v>
+        <v>2.145985705696731</v>
       </c>
       <c r="G5">
-        <v>1.638559515227286</v>
+        <v>2.273397835931462</v>
       </c>
       <c r="H5">
-        <v>1.35390887926863</v>
+        <v>1.199923879979792</v>
       </c>
       <c r="I5">
-        <v>0.3728941615706809</v>
+        <v>0.2441607622915072</v>
       </c>
       <c r="J5">
-        <v>0.125773315842576</v>
+        <v>0.03800626386727268</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9729964866141643</v>
+        <v>2.094003939433321</v>
       </c>
       <c r="N5">
-        <v>1.225592221924984</v>
+        <v>1.343077864387922</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1171841391310693</v>
+        <v>0.3112592619679475</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.108922254766</v>
+        <v>0.07350189194886525</v>
       </c>
       <c r="E6">
-        <v>0.1029198684515684</v>
+        <v>0.04019091487123738</v>
       </c>
       <c r="F6">
-        <v>2.138173139538338</v>
+        <v>2.132723553479124</v>
       </c>
       <c r="G6">
-        <v>1.635407975189565</v>
+        <v>2.257645862959947</v>
       </c>
       <c r="H6">
-        <v>1.352803741187444</v>
+        <v>1.192913429829417</v>
       </c>
       <c r="I6">
-        <v>0.3730302908502701</v>
+        <v>0.2442450463827051</v>
       </c>
       <c r="J6">
-        <v>0.1258569921394213</v>
+        <v>0.03813428143924957</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.968819186059207</v>
+        <v>2.078721575691659</v>
       </c>
       <c r="N6">
-        <v>1.224586814915284</v>
+        <v>1.339628970621604</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1221782975083414</v>
+        <v>0.3266289598271754</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1094936406163072</v>
+        <v>0.075370060410485</v>
       </c>
       <c r="E7">
-        <v>0.1027501178560319</v>
+        <v>0.04002228699070454</v>
       </c>
       <c r="F7">
-        <v>2.153972451256578</v>
+        <v>2.225342409914276</v>
       </c>
       <c r="G7">
-        <v>1.657408621894632</v>
+        <v>2.367573745785336</v>
       </c>
       <c r="H7">
-        <v>1.36056311975247</v>
+        <v>1.241883226813059</v>
       </c>
       <c r="I7">
-        <v>0.3721062300123315</v>
+        <v>0.2436970200215569</v>
       </c>
       <c r="J7">
-        <v>0.1252816282121163</v>
+        <v>0.03725438375674739</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9978353450475339</v>
+        <v>2.184977154677242</v>
       </c>
       <c r="N7">
-        <v>1.231607348217807</v>
+        <v>1.363649208210788</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1441730819382201</v>
+        <v>0.3943396098287621</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1119796116678771</v>
+        <v>0.08375877471621607</v>
       </c>
       <c r="E8">
-        <v>0.1020494258015248</v>
+        <v>0.03934000419146511</v>
       </c>
       <c r="F8">
-        <v>2.227421893040315</v>
+        <v>2.64967230888206</v>
       </c>
       <c r="G8">
-        <v>1.757629222206162</v>
+        <v>2.869170697146757</v>
       </c>
       <c r="H8">
-        <v>1.39700684922073</v>
+        <v>1.466516186161414</v>
       </c>
       <c r="I8">
-        <v>0.3685429793032782</v>
+        <v>0.2422127114390094</v>
       </c>
       <c r="J8">
-        <v>0.1228774018724172</v>
+        <v>0.03359346503080807</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.126401698234716</v>
+        <v>2.65908593437382</v>
       </c>
       <c r="N8">
-        <v>1.263616808388917</v>
+        <v>1.47171498594885</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1871252552393798</v>
+        <v>0.5268617763690884</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1167315434953622</v>
+        <v>0.1010487632663057</v>
       </c>
       <c r="E9">
-        <v>0.1008483129274751</v>
+        <v>0.03823510771999672</v>
       </c>
       <c r="F9">
-        <v>2.385125210961036</v>
+        <v>3.556232725651029</v>
       </c>
       <c r="G9">
-        <v>1.965745002969243</v>
+        <v>3.932905548662518</v>
       </c>
       <c r="H9">
-        <v>1.476524462205106</v>
+        <v>1.947521828503369</v>
       </c>
       <c r="I9">
-        <v>0.3633963190381309</v>
+        <v>0.2428499303425724</v>
       </c>
       <c r="J9">
-        <v>0.1186477812942781</v>
+        <v>0.02728641157503953</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.380434579560031</v>
+        <v>3.61649961794221</v>
       </c>
       <c r="N9">
-        <v>1.330019181355681</v>
+        <v>1.691739597717088</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2185555217858166</v>
+        <v>0.6242382360537988</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1201521596573798</v>
+        <v>0.114647232393942</v>
       </c>
       <c r="E10">
-        <v>0.1000704052896273</v>
+        <v>0.03757964144880077</v>
       </c>
       <c r="F10">
-        <v>2.509589137915384</v>
+        <v>4.288750423599765</v>
       </c>
       <c r="G10">
-        <v>2.126024558045742</v>
+        <v>4.787234092006429</v>
       </c>
       <c r="H10">
-        <v>1.539990511436997</v>
+        <v>2.336926968392731</v>
       </c>
       <c r="I10">
-        <v>0.360730654270693</v>
+        <v>0.2456760536608869</v>
       </c>
       <c r="J10">
-        <v>0.1158366158845627</v>
+        <v>0.02326468755421418</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.568296160863312</v>
+        <v>4.347198033448279</v>
       </c>
       <c r="N10">
-        <v>1.380967397138619</v>
+        <v>1.85906418104048</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2328230152464812</v>
+        <v>0.6685833674409594</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.121693927953217</v>
+        <v>0.1211394496340787</v>
       </c>
       <c r="E11">
-        <v>0.0997390293385001</v>
+        <v>0.03731995204611138</v>
       </c>
       <c r="F11">
-        <v>2.568137813040096</v>
+        <v>4.642276491082669</v>
       </c>
       <c r="G11">
-        <v>2.200612069537499</v>
+        <v>5.198365226406054</v>
       </c>
       <c r="H11">
-        <v>1.569988729891008</v>
+        <v>2.525045590141019</v>
       </c>
       <c r="I11">
-        <v>0.3597588688091271</v>
+        <v>0.2475206424158571</v>
       </c>
       <c r="J11">
-        <v>0.1146222294512484</v>
+        <v>0.02158903225150244</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.654039073827533</v>
+        <v>4.688451106635981</v>
       </c>
       <c r="N11">
-        <v>1.404604303995228</v>
+        <v>1.936598049651082</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.238221035338114</v>
+        <v>0.6853865049367016</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1222757760511826</v>
+        <v>0.1236539044059199</v>
       </c>
       <c r="E12">
-        <v>0.09961676646145357</v>
+        <v>0.03722768104799723</v>
       </c>
       <c r="F12">
-        <v>2.590590774142669</v>
+        <v>4.779672372994241</v>
       </c>
       <c r="G12">
-        <v>2.229102846580872</v>
+        <v>5.357975396685106</v>
       </c>
       <c r="H12">
-        <v>1.581512746911983</v>
+        <v>2.598186046835792</v>
       </c>
       <c r="I12">
-        <v>0.3594253987045732</v>
+        <v>0.248303766210082</v>
       </c>
       <c r="J12">
-        <v>0.1141716531845343</v>
+        <v>0.02097870992717921</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.686549260072368</v>
+        <v>4.81925056344042</v>
       </c>
       <c r="N12">
-        <v>1.413620209160712</v>
+        <v>1.966178368451921</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2370586938417034</v>
+        <v>0.681767113692473</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1221505518827257</v>
+        <v>0.123109660617871</v>
       </c>
       <c r="E13">
-        <v>0.09964295487012542</v>
+        <v>0.03724727315127474</v>
       </c>
       <c r="F13">
-        <v>2.585742520921883</v>
+        <v>4.749914093986661</v>
       </c>
       <c r="G13">
-        <v>2.222955819113452</v>
+        <v>5.323413509310171</v>
       </c>
       <c r="H13">
-        <v>1.579023498066647</v>
+        <v>2.582343366853991</v>
       </c>
       <c r="I13">
-        <v>0.3594956836996559</v>
+        <v>0.2481312718967672</v>
       </c>
       <c r="J13">
-        <v>0.1142682795293992</v>
+        <v>0.02110904021152216</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.679545770187829</v>
+        <v>4.791005082063393</v>
       </c>
       <c r="N13">
-        <v>1.411675593244098</v>
+        <v>1.959797661737326</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.233267211568716</v>
+        <v>0.6699655365388537</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1217418363548148</v>
+        <v>0.1213451146921898</v>
       </c>
       <c r="E14">
-        <v>0.09972890619978525</v>
+        <v>0.03731223561835595</v>
       </c>
       <c r="F14">
-        <v>2.569979357480634</v>
+        <v>4.65350563240483</v>
       </c>
       <c r="G14">
-        <v>2.202951060670387</v>
+        <v>5.211413371691776</v>
       </c>
       <c r="H14">
-        <v>1.570933510959435</v>
+        <v>2.531022641633172</v>
       </c>
       <c r="I14">
-        <v>0.3597307427249099</v>
+        <v>0.2475833491060904</v>
       </c>
       <c r="J14">
-        <v>0.1145849740527127</v>
+        <v>0.02153832231645625</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.656712878101061</v>
+        <v>4.69917856077069</v>
       </c>
       <c r="N14">
-        <v>1.405344748882158</v>
+        <v>1.939027134363954</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2309441857572665</v>
+        <v>0.6627382270864359</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1214912296950743</v>
+        <v>0.1202719734299009</v>
       </c>
       <c r="E15">
-        <v>0.09978197307973868</v>
+        <v>0.03735283575413817</v>
       </c>
       <c r="F15">
-        <v>2.560360801822497</v>
+        <v>4.594931460040499</v>
       </c>
       <c r="G15">
-        <v>2.190729773587464</v>
+        <v>5.143343837651628</v>
       </c>
       <c r="H15">
-        <v>1.565999630220858</v>
+        <v>2.49984594551762</v>
       </c>
       <c r="I15">
-        <v>0.3598792160218736</v>
+        <v>0.2472588819855694</v>
       </c>
       <c r="J15">
-        <v>0.1147801684725727</v>
+        <v>0.02180449052905864</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.64273245146039</v>
+        <v>4.643147164822182</v>
       </c>
       <c r="N15">
-        <v>1.401475373158718</v>
+        <v>1.926333734278813</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2176224625222574</v>
+        <v>0.6213414498823511</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1200511197947165</v>
+        <v>0.1142300743091553</v>
       </c>
       <c r="E16">
-        <v>0.1000925130784021</v>
+        <v>0.03759742933805477</v>
       </c>
       <c r="F16">
-        <v>2.505802043275651</v>
+        <v>4.266104170975154</v>
       </c>
       <c r="G16">
-        <v>2.121184244197593</v>
+        <v>4.760874225828331</v>
       </c>
       <c r="H16">
-        <v>1.538052930913068</v>
+        <v>2.32488025701258</v>
       </c>
       <c r="I16">
-        <v>0.3607989997186074</v>
+        <v>0.2455671080555888</v>
       </c>
       <c r="J16">
-        <v>0.115917277113387</v>
+        <v>0.02337746292531495</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.562698402923402</v>
+        <v>4.325098912214045</v>
       </c>
       <c r="N16">
-        <v>1.379431840419613</v>
+        <v>1.854027020153865</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2094419627808577</v>
+        <v>0.5959606681330172</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1191640479797158</v>
+        <v>0.1106096889267221</v>
       </c>
       <c r="E17">
-        <v>0.1002887722200025</v>
+        <v>0.03775767000950569</v>
       </c>
       <c r="F17">
-        <v>2.472829285095827</v>
+        <v>4.069973118891141</v>
       </c>
       <c r="G17">
-        <v>2.078953104817799</v>
+        <v>4.532452288016913</v>
       </c>
       <c r="H17">
-        <v>1.52119882622975</v>
+        <v>2.220568274805657</v>
       </c>
       <c r="I17">
-        <v>0.361424864066791</v>
+        <v>0.2446753367337493</v>
       </c>
       <c r="J17">
-        <v>0.1166313725040389</v>
+        <v>0.02438322602189213</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.513673051822863</v>
+        <v>4.132450618516543</v>
       </c>
       <c r="N17">
-        <v>1.366025976551896</v>
+        <v>1.81004313848959</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2047339290096488</v>
+        <v>0.5813665949889355</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.118652478791752</v>
+        <v>0.1085553065891176</v>
       </c>
       <c r="E18">
-        <v>0.1004037737064287</v>
+        <v>0.03785341904405914</v>
       </c>
       <c r="F18">
-        <v>2.454045563569451</v>
+        <v>3.959032234178096</v>
       </c>
       <c r="G18">
-        <v>2.054820265399428</v>
+        <v>4.403138925502304</v>
       </c>
       <c r="H18">
-        <v>1.511610750286565</v>
+        <v>2.161581132773335</v>
       </c>
       <c r="I18">
-        <v>0.3618075199306752</v>
+        <v>0.2442147536590689</v>
       </c>
       <c r="J18">
-        <v>0.1170481641609229</v>
+        <v>0.0249760535866872</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.485501646172935</v>
+        <v>4.022456736134799</v>
       </c>
       <c r="N18">
-        <v>1.358358667582195</v>
+        <v>1.784877097432684</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2031393968429711</v>
+        <v>0.5764259228182027</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1184790365116868</v>
+        <v>0.1078642094038784</v>
       </c>
       <c r="E19">
-        <v>0.1004430754767416</v>
+        <v>0.03788643953378568</v>
       </c>
       <c r="F19">
-        <v>2.447716730250903</v>
+        <v>3.921773908247104</v>
       </c>
       <c r="G19">
-        <v>2.046676177541116</v>
+        <v>4.359692089825757</v>
       </c>
       <c r="H19">
-        <v>1.508382523204688</v>
+        <v>2.141773705791053</v>
       </c>
       <c r="I19">
-        <v>0.3619409784591312</v>
+        <v>0.2440676738976748</v>
       </c>
       <c r="J19">
-        <v>0.1171903233245029</v>
+        <v>0.02517917887295562</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.475967862947613</v>
+        <v>3.985345983778259</v>
       </c>
       <c r="N19">
-        <v>1.355770133530655</v>
+        <v>1.776378568660135</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.210313086501543</v>
+        <v>0.5986620273223764</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1192586174077945</v>
+        <v>0.1109921124252793</v>
       </c>
       <c r="E20">
-        <v>0.1002676609467015</v>
+        <v>0.03774023792626835</v>
       </c>
       <c r="F20">
-        <v>2.476320492208686</v>
+        <v>4.090654211928694</v>
       </c>
       <c r="G20">
-        <v>2.083432354809702</v>
+        <v>4.556549499624737</v>
       </c>
       <c r="H20">
-        <v>1.522981991888742</v>
+        <v>2.231565736469634</v>
       </c>
       <c r="I20">
-        <v>0.361355893728895</v>
+        <v>0.244764820668383</v>
       </c>
       <c r="J20">
-        <v>0.1165547281951922</v>
+        <v>0.02427466261689482</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.518889120113997</v>
+        <v>4.152872293518968</v>
       </c>
       <c r="N20">
-        <v>1.367448570815384</v>
+        <v>1.814711490762164</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2343809945632529</v>
+        <v>0.6734316265563507</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1218619393627307</v>
+        <v>0.1218617757649625</v>
       </c>
       <c r="E21">
-        <v>0.09970357287159715</v>
+        <v>0.0372929848369612</v>
       </c>
       <c r="F21">
-        <v>2.574601695889498</v>
+        <v>4.681722101676684</v>
       </c>
       <c r="G21">
-        <v>2.208820222283634</v>
+        <v>5.244197856074095</v>
       </c>
       <c r="H21">
-        <v>1.573305257865286</v>
+        <v>2.546042187616649</v>
       </c>
       <c r="I21">
-        <v>0.3596607640745937</v>
+        <v>0.2477419553135434</v>
       </c>
       <c r="J21">
-        <v>0.1144917010182624</v>
+        <v>0.02141155641142234</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.663418330207094</v>
+        <v>4.726104803664782</v>
       </c>
       <c r="N21">
-        <v>1.407202512405036</v>
+        <v>1.945121836259091</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2500827700675643</v>
+        <v>0.7223617107214579</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.123551816956514</v>
+        <v>0.129299827339814</v>
       </c>
       <c r="E22">
-        <v>0.09935368290501323</v>
+        <v>0.03703642162642051</v>
       </c>
       <c r="F22">
-        <v>2.640479077548889</v>
+        <v>5.08892879131372</v>
       </c>
       <c r="G22">
-        <v>2.292205397511907</v>
+        <v>5.716913421127742</v>
       </c>
       <c r="H22">
-        <v>1.607153416213862</v>
+        <v>2.762870571339533</v>
       </c>
       <c r="I22">
-        <v>0.3587540820443849</v>
+        <v>0.2501831256867639</v>
       </c>
       <c r="J22">
-        <v>0.1131975266809349</v>
+        <v>0.0196826912900443</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.758116925393381</v>
+        <v>5.110109171792416</v>
       </c>
       <c r="N22">
-        <v>1.433563103767341</v>
+        <v>2.031643123532149</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2417051345308892</v>
+        <v>0.696239623927994</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1226509308025285</v>
+        <v>0.125294707072932</v>
       </c>
       <c r="E23">
-        <v>0.09953871227842281</v>
+        <v>0.03716986262161015</v>
       </c>
       <c r="F23">
-        <v>2.605167090607978</v>
+        <v>4.869449029240201</v>
       </c>
       <c r="G23">
-        <v>2.247567946996469</v>
+        <v>5.462218732438544</v>
       </c>
       <c r="H23">
-        <v>1.588999512010218</v>
+        <v>2.645985691892236</v>
       </c>
       <c r="I23">
-        <v>0.3592196223111763</v>
+        <v>0.2488334020678238</v>
       </c>
       <c r="J23">
-        <v>0.1138832916303516</v>
+        <v>0.0205916176173333</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.70755236016322</v>
+        <v>4.904185643969697</v>
       </c>
       <c r="N23">
-        <v>1.419459622638641</v>
+        <v>1.985341227341308</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2099192668711396</v>
+        <v>0.5974407503428267</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1192158674955763</v>
+        <v>0.110819135448331</v>
       </c>
       <c r="E24">
-        <v>0.1002771985949282</v>
+        <v>0.03774810771946235</v>
       </c>
       <c r="F24">
-        <v>2.474741579707228</v>
+        <v>4.081298672763097</v>
       </c>
       <c r="G24">
-        <v>2.081406830258402</v>
+        <v>4.545648941460797</v>
       </c>
       <c r="H24">
-        <v>1.522175506485723</v>
+        <v>2.226590745299518</v>
       </c>
       <c r="I24">
-        <v>0.3613870040747962</v>
+        <v>0.2447242029926322</v>
       </c>
       <c r="J24">
-        <v>0.1165893596257832</v>
+        <v>0.02432369880716445</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.516530892305937</v>
+        <v>4.143637302110619</v>
       </c>
       <c r="N24">
-        <v>1.36680529158545</v>
+        <v>1.812600553391434</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1755265674511293</v>
+        <v>0.4910221742703413</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1154587440854016</v>
+        <v>0.09624619615193097</v>
       </c>
       <c r="E25">
-        <v>0.101154822198783</v>
+        <v>0.03850780839321288</v>
       </c>
       <c r="F25">
-        <v>2.340971673794229</v>
+        <v>3.301038307962699</v>
       </c>
       <c r="G25">
-        <v>1.908171802944764</v>
+        <v>3.634317120617823</v>
       </c>
       <c r="H25">
-        <v>1.454136962339902</v>
+        <v>1.812001325268682</v>
       </c>
       <c r="I25">
-        <v>0.3645922456310053</v>
+        <v>0.2422784067086816</v>
       </c>
       <c r="J25">
-        <v>0.1197400130042408</v>
+        <v>0.02889156092460832</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.311501302633687</v>
+        <v>3.35355794608509</v>
       </c>
       <c r="N25">
-        <v>1.311672165330208</v>
+        <v>1.63127781256577</v>
       </c>
       <c r="O25">
         <v>0</v>
